--- a/tests/data/testDataBooking.xlsx
+++ b/tests/data/testDataBooking.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>bookingid</t>
   </si>
@@ -31,34 +31,19 @@
     <t>bookingdates</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>{"checkin":"2022-02-01","checkout":"2022-02-05"}</t>
-  </si>
-  <si>
     <t>Cristhian</t>
   </si>
   <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>{"checkin":"2025-01-19","checkout":"2025-01-20"}</t>
+  </si>
+  <si>
     <t>Montaño</t>
   </si>
   <si>
-    <t>{"checkin":"2025-01-19","checkout":"2025-01-20"}</t>
-  </si>
-  <si>
     <t>David</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>{"checkin":"2025-01-17","checkout":"2025-01-18"}</t>
   </si>
 </sst>
 </file>
@@ -435,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
@@ -475,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -483,182 +468,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
         <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
